--- a/src/main/resources/static/modalFile/importStudent.xlsx
+++ b/src/main/resources/static/modalFile/importStudent.xlsx
@@ -1,43 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DRGs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577D8F86-038F-47B0-87C4-3B5DB7AFF7B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="195" windowWidth="27915" windowHeight="15255" xr2:uid="{6109607E-AE21-4BB5-8392-DB9CC3F2DC79}"/>
+    <workbookView windowWidth="16425" windowHeight="11670"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="学生信息" sheetId="1" r:id="rId1"/>
+    <sheet name="辅助信息" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>培养层次编码</t>
   </si>
@@ -48,9 +26,39 @@
     <t>年级编码</t>
   </si>
   <si>
+    <t>专业编码</t>
+  </si>
+  <si>
+    <t>行政班ID</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>学生姓名</t>
+  </si>
+  <si>
     <t>曾用名</t>
   </si>
   <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>状态编码</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">身份证号 </t>
+  </si>
+  <si>
+    <t>民族编码</t>
+  </si>
+  <si>
     <t xml:space="preserve">是否有学籍 </t>
   </si>
   <si>
@@ -72,6 +80,9 @@
     <t>入学总分</t>
   </si>
   <si>
+    <t>入学时间</t>
+  </si>
+  <si>
     <t>毕业证号</t>
   </si>
   <si>
@@ -96,9 +107,21 @@
     <t>体重</t>
   </si>
   <si>
+    <t xml:space="preserve">婚否 </t>
+  </si>
+  <si>
+    <t>来自军队</t>
+  </si>
+  <si>
     <t>招生方式编码</t>
   </si>
   <si>
+    <t>定向培养</t>
+  </si>
+  <si>
+    <t>贫困家庭</t>
+  </si>
+  <si>
     <t>家庭住址</t>
   </si>
   <si>
@@ -108,87 +131,374 @@
     <t>备注</t>
   </si>
   <si>
-    <t>专业编码</t>
-  </si>
-  <si>
-    <t>行政班ID</t>
-  </si>
-  <si>
-    <t>学号</t>
-  </si>
-  <si>
-    <t>学生姓名</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>状态编码</t>
-  </si>
-  <si>
-    <t>出生日期</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">身份证号 </t>
-  </si>
-  <si>
-    <t>民族编码</t>
-  </si>
-  <si>
-    <t>入学时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">婚否 </t>
-  </si>
-  <si>
-    <t>来自军队</t>
-  </si>
-  <si>
-    <t>定向培养</t>
-  </si>
-  <si>
-    <t>贫困家庭</t>
-  </si>
-  <si>
     <t>有效标志</t>
+  </si>
+  <si>
+    <t>奥德赛</t>
+  </si>
+  <si>
+    <t>阿萨德</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000\-0000\-0000"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -196,9 +506,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -206,27 +758,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -275,7 +871,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -308,26 +904,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -360,23 +939,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -518,35 +1080,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54ED13C4-3D5C-44CE-B390-0330E134C491}">
-  <dimension ref="A1:AN15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AM15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y7" sqref="Y7"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" customWidth="1"/>
-    <col min="8" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2" customWidth="1"/>
-    <col min="15" max="25" width="9" customWidth="1"/>
-    <col min="26" max="26" width="15" customWidth="1"/>
-    <col min="27" max="32" width="9" customWidth="1"/>
+    <col min="7" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1" customWidth="1"/>
+    <col min="14" max="24" width="9" customWidth="1"/>
+    <col min="25" max="25" width="15" customWidth="1"/>
+    <col min="26" max="31" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,189 +1117,204 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="X1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN1" t="s">
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="L2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="Z2" s="3"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="Z3" s="3"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="Z6" s="3"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="Z8" s="3"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="Z9" s="3"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="Z12" s="3"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="Z13" s="3"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="Z14" s="3"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="Z15" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="25:25">
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="25:25">
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="25:25">
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="25:25">
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="25:25">
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="25:25">
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="25:25">
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="25:25">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="25:25">
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="25:25">
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="25:25">
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="25:25">
+      <c r="Y15" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="11">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="B1:B1048576" xr:uid="{2C16C231-A434-4779-8591-CE7E4899A9AC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="J1 N1 W1 K1:K1048576 M1 O1:O1048576 C1:H1048576" xr:uid="{2F72DAA9-F03F-48D7-A9D4-F18EF5D34B73}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="J2:J1048576" xr:uid="{02F4B1CE-7EB4-4155-8E8B-F7D1334BE5E1}">
+  <dataValidations count="9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="I1 K1 L1 M1 V1 J$1:J$1048576 N$1:N$1048576 B$1:G$1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576 AH2:AI1048576 AE2:AF1048576">
+      <formula1>"T,F"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="必须为大于零的整数" promptTitle="提示：" prompt="不能为空" sqref="L2:L1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="A$1:A$1048576" errorStyle="warning"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="I2:I1048576">
       <formula1>"M,F"</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="L1" xr:uid="{2A7EC8A8-A439-44CC-90B8-AA3C1821B6AD}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="日期不能早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="L2:L1048576" xr:uid="{5D558AEF-229F-4268-A2C4-B741275C7D5E}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="日期不能早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="K2:K1048576">
       <formula1>32874</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="必须为大于零的整数" promptTitle="提示：" prompt="不能为空" sqref="M2:M1048576" xr:uid="{365EAFBA-ABF3-4807-825C-7A3212FE6964}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="请输入正确的18位身份证号码" promptTitle="提示：" prompt="不能为空" sqref="N2:N1048576" xr:uid="{0924727D-63C9-4B61-8790-89090DD7A143}">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="请输入正确的18位身份证号码" promptTitle="提示：" prompt="不能为空" sqref="M2:M1048576">
       <formula1>18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{89809D74-8994-481F-8DE5-A4B1DE790BD3}">
-      <formula1>"T,F"</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="不得早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="W2:W1048576" xr:uid="{C7DF3D79-84C1-4C95-B66F-4A6381D36FD3}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="不得早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="V2:V1048576">
       <formula1>32874</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AG1048576 AI2:AJ1048576" xr:uid="{F7E4F120-B634-4A5A-B546-AE375F2CA4C7}">
-      <formula1>"T,F"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2:AN1048576" xr:uid="{D260FA91-2F16-4CC7-93E9-5FBEED619920}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576">
       <formula1>"1,0"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/modalFile/importStudent.xlsx
+++ b/src/main/resources/static/modalFile/importStudent.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="11670"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="学生信息" sheetId="1" r:id="rId1"/>
-    <sheet name="辅助信息" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>培养层次编码</t>
   </si>
@@ -132,12 +131,6 @@
   </si>
   <si>
     <t>有效标志</t>
-  </si>
-  <si>
-    <t>奥德赛</t>
-  </si>
-  <si>
-    <t>阿萨德</t>
   </si>
 </sst>
 </file>
@@ -145,11 +138,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="000\-0000\-0000"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000\-0000\-0000"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -160,6 +153,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -168,32 +230,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,13 +261,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -229,31 +269,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,39 +284,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,25 +306,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,157 +480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,69 +497,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,6 +524,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -604,6 +579,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -612,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,133 +617,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,7 +1084,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1222,18 +1215,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
+    <row r="2" spans="11:25">
       <c r="K2" s="2"/>
       <c r="V2" s="2"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
+    <row r="3" spans="25:25">
       <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="25:25">
@@ -1275,6 +1262,12 @@
   </sheetData>
   <dataValidations count="9">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="I1 K1 L1 M1 V1 J$1:J$1048576 N$1:N$1048576 B$1:G$1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576">
+      <formula1>"1,0"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="I2:I1048576">
+      <formula1>"M,F"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576 AH2:AI1048576 AE2:AF1048576">
       <formula1>"T,F"</formula1>
     </dataValidation>
@@ -1282,9 +1275,6 @@
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="A$1:A$1048576" errorStyle="warning"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="I2:I1048576">
-      <formula1>"M,F"</formula1>
-    </dataValidation>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="日期不能早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="K2:K1048576">
       <formula1>32874</formula1>
     </dataValidation>
@@ -1294,27 +1284,8 @@
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="不得早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="V2:V1048576">
       <formula1>32874</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576">
-      <formula1>"1,0"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/src/main/resources/static/modalFile/importStudent.xlsx
+++ b/src/main/resources/static/modalFile/importStudent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>培养层次编码</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>出生日期</t>
-  </si>
-  <si>
-    <t>年龄</t>
   </si>
   <si>
     <t xml:space="preserve">身份证号 </t>
@@ -140,9 +137,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="000\-0000\-0000"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,6 +147,119 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,137 +271,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,6 +501,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -524,17 +556,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,35 +594,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -605,10 +602,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,133 +614,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,24 +1076,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM15"/>
+  <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="7" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1" customWidth="1"/>
-    <col min="14" max="24" width="9" customWidth="1"/>
-    <col min="25" max="25" width="15" customWidth="1"/>
-    <col min="26" max="31" width="9" customWidth="1"/>
+    <col min="7" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" customWidth="1"/>
+    <col min="13" max="23" width="9" customWidth="1"/>
+    <col min="24" max="24" width="15" customWidth="1"/>
+    <col min="25" max="30" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1211,77 +1208,71 @@
       <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="11:25">
+    </row>
+    <row r="2" spans="11:24">
       <c r="K2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="Y2" s="3"/>
-    </row>
-    <row r="3" spans="25:25">
-      <c r="Y3" s="3"/>
-    </row>
-    <row r="4" spans="25:25">
-      <c r="Y4" s="3"/>
-    </row>
-    <row r="5" spans="25:25">
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="25:25">
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="25:25">
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="25:25">
-      <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="25:25">
-      <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="25:25">
-      <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="25:25">
-      <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="25:25">
-      <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="25:25">
-      <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="25:25">
-      <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="25:25">
-      <c r="Y15" s="3"/>
+      <c r="U2" s="2"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="24:24">
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="24:24">
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="24:24">
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="24:24">
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="24:24">
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="24:24">
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="24:24">
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="24:24">
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="24:24">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="24:24">
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="24:24">
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="24:24">
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="24:24">
+      <c r="X15" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="I1 K1 L1 M1 V1 J$1:J$1048576 N$1:N$1048576 B$1:G$1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576">
-      <formula1>"1,0"</formula1>
-    </dataValidation>
+  <dataValidations count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="I1 K1 L1 U1 J$1:J$1048576 M$1:M$1048576 B$1:G$1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="A$1:A$1048576" errorStyle="warning"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="I2:I1048576">
       <formula1>"M,F"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576 AH2:AI1048576 AE2:AF1048576">
-      <formula1>"T,F"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL1048576">
+      <formula1>"1,0"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="必须为大于零的整数" promptTitle="提示：" prompt="不能为空" sqref="L2:L1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="A$1:A$1048576" errorStyle="warning"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="日期不能早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="K2:K1048576">
       <formula1>32874</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="请输入正确的18位身份证号码" promptTitle="提示：" prompt="不能为空" sqref="M2:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576 AD2:AE1048576 AG2:AH1048576">
+      <formula1>"T,F"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="请输入正确的18位身份证号码" promptTitle="提示：" prompt="不能为空" sqref="L2:L1048576">
       <formula1>18</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="不得早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="V2:V1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="不得早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="U2:U1048576">
       <formula1>32874</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/static/modalFile/importStudent.xlsx
+++ b/src/main/resources/static/modalFile/importStudent.xlsx
@@ -10,11 +10,12 @@
     <sheet name="学生信息" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:AL15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>培养层次编码</t>
   </si>
@@ -125,21 +126,17 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>有效标志</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="000\-0000\-0000"/>
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,8 +147,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -159,28 +186,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,106 +290,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -303,12 +300,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -321,169 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,24 +491,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,6 +509,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -537,30 +540,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,17 +559,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,10 +599,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,137 +611,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -752,9 +749,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1076,109 +1070,119 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="AK1" sqref="A1 A$1:A$1048576 B$1:B$1048576 C$1:C$1048576 D$1:D$1048576 E$1:E$1048576 F$1:F$1048576 G$1:G$1048576 H$1:H$1048576 J$1:J$1048576 L$1:L$1048576 M$1:M$1048576 O$1:O$1048576 P$1:P$1048576 Q$1:Q$1048576 R$1:R$1048576 S$1:S$1048576 T$1:T$1048576 V$1:V$1048576 W$1:W$1048576 X$1:X$1048576 Y$1:Y$1048576 Z$1:Z$1048576 AA$1:AA$1048576 AB$1:AB$1048576 AC$1:AC$1048576 AF$1:AF$1048576 AI$1:AI$1048576 AJ$1:AJ$1048576 AK$1:AK$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="7" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1" customWidth="1"/>
-    <col min="13" max="23" width="9" customWidth="1"/>
-    <col min="24" max="24" width="15" customWidth="1"/>
-    <col min="25" max="30" width="9" customWidth="1"/>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="20" width="9" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9" customWidth="1"/>
+    <col min="22" max="23" width="9" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15" style="1" customWidth="1"/>
+    <col min="25" max="29" width="9" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9" customWidth="1"/>
+    <col min="32" max="32" width="9" style="1"/>
+    <col min="35" max="37" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
-      <c r="A1" t="s">
+    <row r="1" spans="1:37">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AD1" t="s">
@@ -1187,7 +1191,7 @@
       <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AG1" t="s">
@@ -1196,78 +1200,32 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="2" spans="11:24">
+    <row r="2" spans="11:21">
       <c r="K2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" spans="24:24">
-      <c r="X3" s="3"/>
-    </row>
-    <row r="4" spans="24:24">
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="24:24">
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="24:24">
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="24:24">
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="24:24">
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="24:24">
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="24:24">
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="24:24">
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="24:24">
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="24:24">
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="24:24">
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="24:24">
-      <c r="X15" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576 AD2:AE1048576 AG2:AH1048576">
+      <formula1>"T,F"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="I1 K1 L1 U1 J$1:J$1048576 M$1:M$1048576 B$1:G$1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="A$1:A$1048576" errorStyle="warning"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="I2:I1048576">
-      <formula1>"M,F"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL1048576">
-      <formula1>"1,0"</formula1>
-    </dataValidation>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="日期不能早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="K2:K1048576">
       <formula1>32874</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576 AD2:AE1048576 AG2:AH1048576">
-      <formula1>"T,F"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="I2:I1048576">
+      <formula1>"M,F"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="请输入正确的18位身份证号码" promptTitle="提示：" prompt="不能为空" sqref="L2:L1048576">
       <formula1>18</formula1>

--- a/src/main/resources/static/modalFile/importStudent.xlsx
+++ b/src/main/resources/static/modalFile/importStudent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="22185" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="学生信息" sheetId="1" r:id="rId1"/>
@@ -134,8 +134,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -154,6 +154,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -162,16 +169,83 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,20 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,74 +270,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,6 +282,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -300,6 +300,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -312,175 +336,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,6 +510,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -520,6 +535,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,6 +568,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -558,39 +591,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -599,7 +599,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -614,130 +614,130 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1216,22 +1216,22 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576 AD2:AE1048576 AG2:AH1048576">
-      <formula1>"T,F"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="I1 K1 L1 U1 J$1:J$1048576 M$1:M$1048576 B$1:G$1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="A$1:A$1048576" errorStyle="warning"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="日期不能早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="K2:K1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="不得早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="U2:U1048576">
       <formula1>32874</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="不能为空" sqref="I2:I1048576">
       <formula1>"M,F"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576 AD2:AE1048576 AG2:AH1048576">
+      <formula1>"T,F"</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="日期不能早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="K2:K1048576">
+      <formula1>32874</formula1>
+    </dataValidation>
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="请输入正确的18位身份证号码" promptTitle="提示：" prompt="不能为空" sqref="L2:L1048576">
       <formula1>18</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="警告！" error="不得早于1990-01-01" promptTitle="提示：" prompt="不能为空" sqref="U2:U1048576">
-      <formula1>32874</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
